--- a/digital_public_service_use.xlsx
+++ b/digital_public_service_use.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\Blessing and Curse\Employment\UNDP\Assignment 1\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\GIT\public_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABA0057-1E87-4BBD-848D-C45F5B3E51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC51E78-7EFD-4613-B4F8-42920DD6A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2E3E467-D411-49B1-A23B-BE59E0A6F72B}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,16 +557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
